--- a/Story Ideas/Character Items/GM.xlsx
+++ b/Story Ideas/Character Items/GM.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\HPRPG\Story Ideas\Character Items\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B28DDECA-AB56-4DA1-A467-8465288521F0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FC92DC1-5331-428D-A0BA-0BC41A4A60D7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{5841858E-0A79-4A60-85EE-E6A19C94436C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -56,9 +56,6 @@
     <t>Personality:</t>
   </si>
   <si>
-    <t xml:space="preserve">The most beuatiful creature alive. </t>
-  </si>
-  <si>
     <t xml:space="preserve">Kind yet cruel, firm yet fair. </t>
   </si>
   <si>
@@ -69,6 +66,9 @@
   </si>
   <si>
     <t>GM (20)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The most beautiful creature alive. </t>
   </si>
 </sst>
 </file>
@@ -423,7 +423,7 @@
   <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -449,10 +449,10 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" t="s">
         <v>10</v>
-      </c>
-      <c r="B3" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -460,7 +460,7 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -468,7 +468,7 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -476,7 +476,7 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
